--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>本地化</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>developer tool</t>
+  </si>
+  <si>
+    <t>resetHero</t>
+  </si>
+  <si>
+    <t>重置英雄</t>
+  </si>
+  <si>
+    <t>reset hero</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1216,6 +1225,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>本地化</t>
   </si>
@@ -47,7 +47,7 @@
     <t>#english#{}</t>
   </si>
   <si>
-    <t>addon_game_mode</t>
+    <t>addon_game_name</t>
   </si>
   <si>
     <t>solid模版</t>
@@ -95,7 +95,7 @@
     <t>记分板</t>
   </si>
   <si>
-    <t>toolcommon</t>
+    <t>tool_common</t>
   </si>
   <si>
     <t>通用工具</t>
@@ -113,13 +113,43 @@
     <t>developer tool</t>
   </si>
   <si>
-    <t>resetHero</t>
+    <t>hero_reset</t>
   </si>
   <si>
     <t>重置英雄</t>
   </si>
   <si>
     <t>reset hero</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>script_reload</t>
+  </si>
+  <si>
+    <t>重载脚本</t>
+  </si>
+  <si>
+    <t>script reload</t>
+  </si>
+  <si>
+    <t>default_UI</t>
+  </si>
+  <si>
+    <t>默认UI</t>
+  </si>
+  <si>
+    <t>default UI</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1236,6 +1266,50 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>本地化</t>
   </si>
@@ -95,6 +95,78 @@
     <t>记分板</t>
   </si>
   <si>
+    <t>default_ui_25</t>
+  </si>
+  <si>
+    <t>击杀助攻数据</t>
+  </si>
+  <si>
+    <t>kill assist data</t>
+  </si>
+  <si>
+    <t>default_ui_29</t>
+  </si>
+  <si>
+    <t>顶部</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>default_ui_2</t>
+  </si>
+  <si>
+    <t>左侧默认计分板</t>
+  </si>
+  <si>
+    <t>Left default scoreboard</t>
+  </si>
+  <si>
+    <t>default_ui_4</t>
+  </si>
+  <si>
+    <t>小地图</t>
+  </si>
+  <si>
+    <t>minimap</t>
+  </si>
+  <si>
+    <t>default_ui_3</t>
+  </si>
+  <si>
+    <t>下方动态头像和技能面板</t>
+  </si>
+  <si>
+    <t>dynamic avatar and skill panel below</t>
+  </si>
+  <si>
+    <t>default_ui_6</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>default_ui_27</t>
+  </si>
+  <si>
+    <t>击杀者提示</t>
+  </si>
+  <si>
+    <t>killer tip</t>
+  </si>
+  <si>
+    <t>default_ui_30</t>
+  </si>
+  <si>
+    <t>自定义UI是否在默认UI之上</t>
+  </si>
+  <si>
+    <t>Is the custom UI on top of the default UI</t>
+  </si>
+  <si>
     <t>tool_common</t>
   </si>
   <si>
@@ -104,13 +176,10 @@
     <t>common tool</t>
   </si>
   <si>
-    <t>tooldeveloper</t>
-  </si>
-  <si>
-    <t>开发工具</t>
-  </si>
-  <si>
-    <t>developer tool</t>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>单位</t>
   </si>
   <si>
     <t>hero_reset</t>
@@ -122,18 +191,54 @@
     <t>reset hero</t>
   </si>
   <si>
+    <t>hero_replace</t>
+  </si>
+  <si>
+    <t>更换英雄</t>
+  </si>
+  <si>
+    <t>replace hero</t>
+  </si>
+  <si>
+    <t>level_up</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>level up</t>
+  </si>
+  <si>
+    <t>level_up_max</t>
+  </si>
+  <si>
+    <t>升到满级</t>
+  </si>
+  <si>
+    <t>level up to max</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>default_UI</t>
+  </si>
+  <si>
+    <t>默认UI</t>
+  </si>
+  <si>
+    <t>default UI</t>
+  </si>
+  <si>
     <t>debug</t>
   </si>
   <si>
     <t>调试</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
     <t>script_reload</t>
   </si>
   <si>
@@ -143,13 +248,22 @@
     <t>script reload</t>
   </si>
   <si>
-    <t>default_UI</t>
-  </si>
-  <si>
-    <t>默认UI</t>
-  </si>
-  <si>
-    <t>default UI</t>
+    <t>script_clear</t>
+  </si>
+  <si>
+    <t>清空控制台</t>
+  </si>
+  <si>
+    <t>clear console</t>
+  </si>
+  <si>
+    <t>particle_log</t>
+  </si>
+  <si>
+    <t>打印特效</t>
+  </si>
+  <si>
+    <t>particle log</t>
   </si>
 </sst>
 </file>
@@ -1102,17 +1216,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -1274,40 +1388,183 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
   <si>
     <t>本地化</t>
   </si>
@@ -218,6 +218,168 @@
     <t>level up to max</t>
   </si>
   <si>
+    <t>revive</t>
+  </si>
+  <si>
+    <t>复活</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>刷新状态</t>
+  </si>
+  <si>
+    <t>refresh state</t>
+  </si>
+  <si>
+    <t>dummy_add</t>
+  </si>
+  <si>
+    <t>+ 傀儡目标</t>
+  </si>
+  <si>
+    <t>add dummy</t>
+  </si>
+  <si>
+    <t>hero_add_friend</t>
+  </si>
+  <si>
+    <t>+ 友方英雄</t>
+  </si>
+  <si>
+    <t>add friend hero</t>
+  </si>
+  <si>
+    <t>hero_add_enemy</t>
+  </si>
+  <si>
+    <t>+ 敌方英雄</t>
+  </si>
+  <si>
+    <t>add enemy hero</t>
+  </si>
+  <si>
+    <t>ent_info</t>
+  </si>
+  <si>
+    <t>实体信息</t>
+  </si>
+  <si>
+    <t>ent info</t>
+  </si>
+  <si>
+    <t>ent_kv</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>ent kv</t>
+  </si>
+  <si>
+    <t>ent_abilities</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>ent abilities</t>
+  </si>
+  <si>
+    <t>ent_items</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>ent items</t>
+  </si>
+  <si>
+    <t>ent_modifiers</t>
+  </si>
+  <si>
+    <t>modifiers</t>
+  </si>
+  <si>
+    <t>ent modifiers</t>
+  </si>
+  <si>
+    <t>ent_states</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>ent states</t>
+  </si>
+  <si>
+    <t>ent_remove</t>
+  </si>
+  <si>
+    <t>移除单位</t>
+  </si>
+  <si>
+    <t>remove ent</t>
+  </si>
+  <si>
+    <t>ent_move</t>
+  </si>
+  <si>
+    <t>移动单位</t>
+  </si>
+  <si>
+    <t>move ent</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>all_map_vision</t>
+  </si>
+  <si>
+    <t>全图</t>
+  </si>
+  <si>
+    <t>all map vision</t>
+  </si>
+  <si>
+    <t>free_spells</t>
+  </si>
+  <si>
+    <t>无限技能</t>
+  </si>
+  <si>
+    <t>free spells</t>
+  </si>
+  <si>
+    <t>day_night_cycle</t>
+  </si>
+  <si>
+    <t>切换昼夜</t>
+  </si>
+  <si>
+    <t>day night cycle</t>
+  </si>
+  <si>
+    <t>host_timescale</t>
+  </si>
+  <si>
+    <t>游戏速度</t>
+  </si>
+  <si>
+    <t>host timescale</t>
+  </si>
+  <si>
+    <t>rune</t>
+  </si>
+  <si>
+    <t>神符</t>
+  </si>
+  <si>
     <t>ui</t>
   </si>
   <si>
@@ -233,6 +395,24 @@
     <t>default UI</t>
   </si>
   <si>
+    <t>camera_distance</t>
+  </si>
+  <si>
+    <t>镜头距离</t>
+  </si>
+  <si>
+    <t>set camera distance</t>
+  </si>
+  <si>
+    <t>show_range</t>
+  </si>
+  <si>
+    <t>显示范围</t>
+  </si>
+  <si>
+    <t>show range</t>
+  </si>
+  <si>
     <t>debug</t>
   </si>
   <si>
@@ -264,6 +444,15 @@
   </si>
   <si>
     <t>particle log</t>
+  </si>
+  <si>
+    <t>combat_log</t>
+  </si>
+  <si>
+    <t>战斗记录</t>
+  </si>
+  <si>
+    <t>combat log</t>
   </si>
 </sst>
 </file>
@@ -904,6 +1093,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1216,10 +1408,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1509,7 +1701,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1527,44 +1719,286 @@
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="179">
   <si>
     <t>本地化</t>
   </si>
@@ -317,12 +317,21 @@
     <t>ent_remove</t>
   </si>
   <si>
-    <t>移除单位</t>
+    <t>删除单位</t>
   </si>
   <si>
     <t>remove ent</t>
   </si>
   <si>
+    <t>ent_remove_desc</t>
+  </si>
+  <si>
+    <t>如果是玩家控制的英雄，会删除所有属于该玩家的实体。</t>
+  </si>
+  <si>
+    <t>If it is a hero controlled by a player, all entities belonging to that player will be deleted</t>
+  </si>
+  <si>
     <t>ent_move</t>
   </si>
   <si>
@@ -374,6 +383,15 @@
     <t>host timescale</t>
   </si>
   <si>
+    <t>host_timescale_desc</t>
+  </si>
+  <si>
+    <t>建议范围0~10，支持小数，不包含0。因为设置为0后，前端的消息就不能发送到脚本里了。</t>
+  </si>
+  <si>
+    <t>suggested range 0~10, supports decimals.</t>
+  </si>
+  <si>
     <t>rune</t>
   </si>
   <si>
@@ -404,6 +422,15 @@
     <t>set camera distance</t>
   </si>
   <si>
+    <t>camera_distance_desc</t>
+  </si>
+  <si>
+    <t>高度过高会可能会卡顿，建议量力而行。</t>
+  </si>
+  <si>
+    <t>If the height is too high, it may cause stuttering. It is recommended to act within your means.</t>
+  </si>
+  <si>
     <t>show_range</t>
   </si>
   <si>
@@ -413,6 +440,15 @@
     <t>show range</t>
   </si>
   <si>
+    <t>show_range_desc</t>
+  </si>
+  <si>
+    <t>输入0时会清除自定义范围。</t>
+  </si>
+  <si>
+    <t>When entering 0, the custom range will be cleared.</t>
+  </si>
+  <si>
     <t>debug</t>
   </si>
   <si>
@@ -437,13 +473,88 @@
     <t>clear console</t>
   </si>
   <si>
+    <t>game_restart</t>
+  </si>
+  <si>
+    <t>重启游戏</t>
+  </si>
+  <si>
+    <t>restart game</t>
+  </si>
+  <si>
+    <t>fast_console_command</t>
+  </si>
+  <si>
+    <t>控制台指令</t>
+  </si>
+  <si>
+    <t>console command</t>
+  </si>
+  <si>
+    <t>dota_easybuy</t>
+  </si>
+  <si>
+    <t>快捷购买</t>
+  </si>
+  <si>
+    <t>dota easybuy</t>
+  </si>
+  <si>
+    <t>cl_particle_log_creates</t>
+  </si>
+  <si>
+    <t>打印特效</t>
+  </si>
+  <si>
+    <t>particle log</t>
+  </si>
+  <si>
+    <t>cl_dota_gridnav_show</t>
+  </si>
+  <si>
+    <t>显示网格</t>
+  </si>
+  <si>
+    <t>gridnav</t>
+  </si>
+  <si>
+    <t>dota_unit_show_bounding_radius</t>
+  </si>
+  <si>
+    <t>边界体积</t>
+  </si>
+  <si>
+    <t>bounding radius</t>
+  </si>
+  <si>
+    <t>dota_unit_show_selection_boxes</t>
+  </si>
+  <si>
+    <t>选择体积</t>
+  </si>
+  <si>
+    <t>selection boxes</t>
+  </si>
+  <si>
+    <t>dota_unit_show_collision_radius</t>
+  </si>
+  <si>
+    <t>碰撞体积</t>
+  </si>
+  <si>
+    <t>collision radius</t>
+  </si>
+  <si>
+    <t>debug_overlay_fullposition</t>
+  </si>
+  <si>
+    <t>ent_text坐标</t>
+  </si>
+  <si>
+    <t>ent_text fullposition</t>
+  </si>
+  <si>
     <t>particle_log</t>
-  </si>
-  <si>
-    <t>打印特效</t>
-  </si>
-  <si>
-    <t>particle log</t>
   </si>
   <si>
     <t>combat_log</t>
@@ -1081,7 +1192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,6 +1203,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1408,17 +1522,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -1719,7 +1833,7 @@
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1730,7 +1844,7 @@
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1741,7 +1855,7 @@
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1844,18 +1958,18 @@
         <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1899,26 +2013,26 @@
         <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>121</v>
@@ -1926,10 +2040,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>124</v>
@@ -1954,51 +2068,194 @@
         <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>141</v>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="191">
   <si>
     <t>本地化</t>
   </si>
@@ -422,6 +422,15 @@
     <t>set camera distance</t>
   </si>
   <si>
+    <t>camera_adjust</t>
+  </si>
+  <si>
+    <t>相机调整</t>
+  </si>
+  <si>
+    <t>adjust camera</t>
+  </si>
+  <si>
     <t>camera_distance_desc</t>
   </si>
   <si>
@@ -555,6 +564,33 @@
   </si>
   <si>
     <t>particle_log</t>
+  </si>
+  <si>
+    <t>dota_combine_models</t>
+  </si>
+  <si>
+    <t>跳过模型绑定</t>
+  </si>
+  <si>
+    <t>combine models</t>
+  </si>
+  <si>
+    <t>showtriggers</t>
+  </si>
+  <si>
+    <t>显示Trigger</t>
+  </si>
+  <si>
+    <t>show triggers</t>
+  </si>
+  <si>
+    <t>cl_entitysummary</t>
+  </si>
+  <si>
+    <t>实体摘要</t>
+  </si>
+  <si>
+    <t>entity summary</t>
   </si>
   <si>
     <t>combat_log</t>
@@ -1522,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2100,7 +2136,7 @@
       <c r="B50" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2111,19 +2147,19 @@
       <c r="B51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>140</v>
+      <c r="C51" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2241,21 +2277,65 @@
         <v>175</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="1" r:id="rId1"/>
+    <sheet name="testexcel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="204">
   <si>
     <t>本地化</t>
   </si>
@@ -509,6 +510,15 @@
     <t>dota easybuy</t>
   </si>
   <si>
+    <t>r_freezeparticles</t>
+  </si>
+  <si>
+    <t>冻结特效</t>
+  </si>
+  <si>
+    <t>freeze particles</t>
+  </si>
+  <si>
     <t>cl_particle_log_creates</t>
   </si>
   <si>
@@ -600,6 +610,36 @@
   </si>
   <si>
     <t>combat log</t>
+  </si>
+  <si>
+    <t>abilityvalues{</t>
+  </si>
+  <si>
+    <t>manacost</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>testexcel1</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>oktestexcel2</t>
+  </si>
+  <si>
+    <t>sdfsdf123</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,6 +1283,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1558,10 +1601,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1869,7 +1912,7 @@
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1880,7 +1923,7 @@
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1891,7 +1934,7 @@
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2288,21 +2331,21 @@
         <v>178</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2336,6 +2379,17 @@
       </c>
       <c r="C68" s="1" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2343,4 +2397,134 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.25" style="1" customWidth="1"/>
+    <col min="9" max="13" width="26.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1232</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4564</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45646</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="3:3">
+      <c r="C51" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="208">
   <si>
     <t>本地化</t>
   </si>
@@ -39,6 +39,9 @@
     <t>英文</t>
   </si>
   <si>
+    <t>特效</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
@@ -342,6 +345,9 @@
     <t>move ent</t>
   </si>
   <si>
+    <t>particles/selection/selection_grid_drag.vpcf</t>
+  </si>
+  <si>
     <t>world</t>
   </si>
   <si>
@@ -630,6 +636,9 @@
     <t>single</t>
   </si>
   <si>
+    <t>mult</t>
+  </si>
+  <si>
     <t>testexcel1</t>
   </si>
   <si>
@@ -640,6 +649,12 @@
   </si>
   <si>
     <t>sdfsdf123</t>
+  </si>
+  <si>
+    <t>{
+"a1" "213123"
+"a2""sdfasdf"
+}</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,6 +1300,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1603,8 +1627,8 @@
   <sheetPr/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1612,7 +1636,7 @@
     <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
@@ -1631,765 +1655,770 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
+      <c r="B27" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="B28" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2402,10 +2431,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2435,44 +2464,47 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -2485,25 +2517,34 @@
         <v>45646</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I4" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="216">
   <si>
     <t>本地化</t>
   </si>
@@ -618,6 +618,12 @@
     <t>combat log</t>
   </si>
   <si>
+    <t>#schinese#kaskflkas_{}</t>
+  </si>
+  <si>
+    <t>#english#{}aasff</t>
+  </si>
+  <si>
     <t>abilityvalues{</t>
   </si>
   <si>
@@ -627,7 +633,13 @@
     <t>cooldown</t>
   </si>
   <si>
-    <t>range</t>
+    <t>spec{</t>
+  </si>
+  <si>
+    <t>spec_manaconst</t>
+  </si>
+  <si>
+    <t>spec-level</t>
   </si>
   <si>
     <t>}</t>
@@ -642,10 +654,22 @@
     <t>testexcel1</t>
   </si>
   <si>
+    <t>asdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
     <t>sdfsd</t>
   </si>
   <si>
     <t>oktestexcel2</t>
+  </si>
+  <si>
+    <t>sdfdsf sdfsdf</t>
+  </si>
+  <si>
+    <t>123123 dfgdf asf</t>
   </si>
   <si>
     <t>sdfsdf123</t>
@@ -1627,8 +1651,8 @@
   <sheetPr/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2431,10 +2455,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2446,9 +2470,9 @@
     <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.25" style="1" customWidth="1"/>
-    <col min="9" max="13" width="26.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="8" max="12" width="29.25" style="1" customWidth="1"/>
+    <col min="13" max="17" width="26.25" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -2464,41 +2488,51 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -2517,12 +2551,18 @@
         <v>45646</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="66" spans="1:10">
+        <v>208</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="66" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -2540,11 +2580,17 @@
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>207</v>
+      <c r="I4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="1" r:id="rId1"/>
-    <sheet name="testexcel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
   <si>
     <t>本地化</t>
   </si>
@@ -616,69 +615,6 @@
   </si>
   <si>
     <t>combat log</t>
-  </si>
-  <si>
-    <t>#schinese#kaskflkas_{}</t>
-  </si>
-  <si>
-    <t>#english#{}aasff</t>
-  </si>
-  <si>
-    <t>abilityvalues{</t>
-  </si>
-  <si>
-    <t>manacost</t>
-  </si>
-  <si>
-    <t>cooldown</t>
-  </si>
-  <si>
-    <t>spec{</t>
-  </si>
-  <si>
-    <t>spec_manaconst</t>
-  </si>
-  <si>
-    <t>spec-level</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>mult</t>
-  </si>
-  <si>
-    <t>testexcel1</t>
-  </si>
-  <si>
-    <t>asdfsdf</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>sdfsd</t>
-  </si>
-  <si>
-    <t>oktestexcel2</t>
-  </si>
-  <si>
-    <t>sdfdsf sdfsdf</t>
-  </si>
-  <si>
-    <t>123123 dfgdf asf</t>
-  </si>
-  <si>
-    <t>sdfsdf123</t>
-  </si>
-  <si>
-    <t>{
-"a1" "213123"
-"a2""sdfasdf"
-}</t>
   </si>
 </sst>
 </file>
@@ -1307,33 +1243,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1651,8 +1584,8 @@
   <sheetPr/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1660,7 +1593,7 @@
     <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
@@ -1670,84 +1603,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
@@ -1962,7 +1895,7 @@
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1973,7 +1906,7 @@
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1984,7 +1917,7 @@
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2089,7 +2022,7 @@
       <c r="C37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2243,7 +2176,7 @@
       <c r="B51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2450,168 +2383,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="80.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
-    <col min="8" max="12" width="29.25" style="1" customWidth="1"/>
-    <col min="13" max="17" width="26.25" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>1232</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4564</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45646</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="66" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="3:3">
-      <c r="C51" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -419,13 +419,13 @@
     <t>default UI</t>
   </si>
   <si>
-    <t>camera_distance</t>
-  </si>
-  <si>
-    <t>镜头距离</t>
-  </si>
-  <si>
-    <t>set camera distance</t>
+    <t>fog_enable</t>
+  </si>
+  <si>
+    <t>雾</t>
+  </si>
+  <si>
+    <t>fog</t>
   </si>
   <si>
     <t>camera_adjust</t>
@@ -1584,8 +1584,8 @@
   <sheetPr/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
   <si>
     <t>本地化</t>
   </si>
@@ -615,6 +615,33 @@
   </si>
   <si>
     <t>combat log</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>俯仰角</t>
+  </si>
+  <si>
+    <t>height_offset</t>
+  </si>
+  <si>
+    <t>yaw</t>
+  </si>
+  <si>
+    <t>水平角</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>距离</t>
+  </si>
+  <si>
+    <t>高度偏移</t>
+  </si>
+  <si>
+    <t>height offset</t>
   </si>
 </sst>
 </file>
@@ -1582,10 +1609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2378,6 +2405,50 @@
         <v>195</v>
       </c>
     </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="210">
   <si>
     <t>本地化</t>
   </si>
@@ -642,6 +642,21 @@
   </si>
   <si>
     <t>height offset</t>
+  </si>
+  <si>
+    <t>postion</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>default_position</t>
+  </si>
+  <si>
+    <t>默认位置</t>
+  </si>
+  <si>
+    <t>default position</t>
   </si>
 </sst>
 </file>
@@ -1609,10 +1624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2449,6 +2464,28 @@
         <v>204</v>
       </c>
     </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="226">
   <si>
     <t>本地化</t>
   </si>
@@ -344,7 +344,10 @@
     <t>move ent</t>
   </si>
   <si>
-    <t>particles/selection/selection_grid_drag.vpcf</t>
+    <t>{
+"1" "particles/selection/selection_grid_drag.vpcf"
+"2" "particles/items_fx/blink_dagger_start.vpcf"
+}</t>
   </si>
   <si>
     <t>world</t>
@@ -657,6 +660,54 @@
   </si>
   <si>
     <t>default position</t>
+  </si>
+  <si>
+    <t>camera_lens</t>
+  </si>
+  <si>
+    <t>相机镜头</t>
+  </si>
+  <si>
+    <t>camera lens</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>记录</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>播放</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>play_all</t>
+  </si>
+  <si>
+    <t>播放全部</t>
+  </si>
+  <si>
+    <t>play all</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>新增</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1305,6 +1356,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1624,10 +1678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1635,7 +1689,7 @@
     <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
@@ -1937,7 +1991,7 @@
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1948,7 +2002,7 @@
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1959,7 +2013,7 @@
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2054,7 +2108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" ht="66" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -2064,7 +2118,7 @@
       <c r="C37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="7" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2218,7 +2272,7 @@
       <c r="B51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2484,6 +2538,83 @@
       </c>
       <c r="C75" s="1" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/excels/game.xlsx
+++ b/excels/game.xlsx
@@ -1680,8 +1680,8 @@
   <sheetPr/>
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
